--- a/finedust.xlsx
+++ b/finedust.xlsx
@@ -14,7 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="22">
+  <x:si>
+    <x:t>경북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
   <x:si>
     <x:t>나쁨</x:t>
   </x:si>
@@ -22,10 +52,7 @@
     <x:t xml:space="preserve">나쁨 </x:t>
   </x:si>
   <x:si>
-    <x:t>보통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
+    <x:t>광주</x:t>
   </x:si>
   <x:si>
     <x:t>강원</x:t>
@@ -37,34 +64,10 @@
     <x:t>경남</x:t>
   </x:si>
   <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북</x:t>
-  </x:si>
-  <x:si>
     <x:t>대구</x:t>
   </x:si>
   <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
+    <x:t>충북</x:t>
   </x:si>
   <x:si>
     <x:t>제주</x:t>
@@ -73,37 +76,10 @@
     <x:t>충남</x:t>
   </x:si>
   <x:si>
-    <x:t>충북</x:t>
+    <x:t>매우나쁨</x:t>
   </x:si>
   <x:si>
     <x:t>세종특별자치시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일(수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15일(금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19일(화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일(목)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18일(월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17일(일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22일(금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16일(토)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우나쁨</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -228,8 +204,11 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -870,538 +849,539 @@
   <x:dimension ref="A1:I18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J17" activeCellId="0" sqref="J17:J17"/>
+      <x:selection activeCell="D1" activeCellId="0" sqref="D1:D1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="9" width="10.65234375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1" s="1">
+        <x:v>43266</x:v>
+      </x:c>
+      <x:c r="C1" s="1">
+        <x:v>43267</x:v>
+      </x:c>
+      <x:c r="D1" s="1">
+        <x:v>43268</x:v>
+      </x:c>
+      <x:c r="E1" s="1">
+        <x:v>43269</x:v>
+      </x:c>
+      <x:c r="F1" s="1">
+        <x:v>43270</x:v>
+      </x:c>
+      <x:c r="G1" s="1">
+        <x:v>43271</x:v>
+      </x:c>
+      <x:c r="H1" s="1">
+        <x:v>43272</x:v>
+      </x:c>
+      <x:c r="I1" s="1">
+        <x:v>43273</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I3" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I4" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I5" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H6" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G7" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I7" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G8" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I8" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I9" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" t="s">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G11" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I11" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G12" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I12" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G13" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I13" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G14" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I14" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G15" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I15" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G16" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I16" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F17" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G17" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I17" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G18" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H18" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I18" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/finedust.xlsx
+++ b/finedust.xlsx
@@ -14,72 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="22">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나쁨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
   <x:si>
     <x:t>경북</x:t>
   </x:si>
   <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나쁨</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">나쁨 </x:t>
   </x:si>
   <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남</x:t>
+    <x:t>충북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충남</x:t>
   </x:si>
   <x:si>
     <x:t>대구</x:t>
   </x:si>
   <x:si>
-    <x:t>충북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충남</x:t>
-  </x:si>
-  <x:si>
     <x:t>매우나쁨</x:t>
   </x:si>
   <x:si>
     <x:t>세종특별자치시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-22</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -208,7 +232,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -849,7 +873,7 @@
   <x:dimension ref="A1:I18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D1" activeCellId="0" sqref="D1:D1048576"/>
+      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -860,42 +884,42 @@
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B1" s="1">
-        <x:v>43266</x:v>
-      </x:c>
-      <x:c r="C1" s="1">
-        <x:v>43267</x:v>
-      </x:c>
-      <x:c r="D1" s="1">
-        <x:v>43268</x:v>
-      </x:c>
-      <x:c r="E1" s="1">
-        <x:v>43269</x:v>
-      </x:c>
-      <x:c r="F1" s="1">
-        <x:v>43270</x:v>
-      </x:c>
-      <x:c r="G1" s="1">
-        <x:v>43271</x:v>
-      </x:c>
-      <x:c r="H1" s="1">
-        <x:v>43272</x:v>
-      </x:c>
-      <x:c r="I1" s="1">
-        <x:v>43273</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>20</x:v>
@@ -904,59 +928,59 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" t="s">
         <x:v>20</x:v>
@@ -968,59 +992,59 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I4" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G6" t="s">
         <x:v>20</x:v>
@@ -1029,53 +1053,53 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I6" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G7" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F8" t="s">
         <x:v>20</x:v>
@@ -1084,24 +1108,24 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I8" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" t="s">
         <x:v>20</x:v>
@@ -1113,39 +1137,39 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I9" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G10" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1153,16 +1177,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F11" t="s">
         <x:v>20</x:v>
@@ -1171,24 +1195,24 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H11" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I11" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E12" t="s">
         <x:v>20</x:v>
@@ -1200,39 +1224,39 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I12" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E13" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G13" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1240,19 +1264,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E14" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G14" t="s">
         <x:v>20</x:v>
@@ -1261,82 +1285,82 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I14" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G15" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I15" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G16" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F17" t="s">
         <x:v>20</x:v>
@@ -1345,30 +1369,30 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I17" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G18" t="s">
         <x:v>20</x:v>
@@ -1377,11 +1401,11 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I18" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>